--- a/deap/mj_projects/definitionbooks/testing_zdt1.xlsx
+++ b/deap/mj_projects/definitionbooks/testing_zdt1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="3" r:id="rId1"/>
@@ -15,17 +15,17 @@
     <sheet name="List Variables" sheetId="8" r:id="rId6"/>
     <sheet name="Objectives" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>Yes</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>continue_run</t>
+  </si>
+  <si>
+    <t>evaluator</t>
+  </si>
+  <si>
+    <t>mj_utilities.util_general</t>
+  </si>
+  <si>
+    <t>evaluate_pop</t>
   </si>
 </sst>
 </file>
@@ -371,7 +380,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -379,14 +388,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,9 +436,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +508,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,7 +688,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
@@ -742,11 +754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -835,48 +847,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -894,7 +917,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -942,11 +965,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="130" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -1495,7 +1518,7 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -1549,7 +1572,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/deap/mj_projects/definitionbooks/testing_zdt1.xlsx
+++ b/deap/mj_projects/definitionbooks/testing_zdt1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="17490" windowHeight="6900" activeTab="2"/>
@@ -11,21 +11,22 @@
     <sheet name="Parameters" sheetId="11" r:id="rId2"/>
     <sheet name="Algorithm" sheetId="9" r:id="rId3"/>
     <sheet name="Operators" sheetId="7" r:id="rId4"/>
-    <sheet name="Range Variables" sheetId="1" r:id="rId5"/>
-    <sheet name="List Variables" sheetId="8" r:id="rId6"/>
-    <sheet name="Objectives" sheetId="4" r:id="rId7"/>
+    <sheet name="Range Variables 30" sheetId="12" r:id="rId5"/>
+    <sheet name="Range Variables" sheetId="1" r:id="rId6"/>
+    <sheet name="List Variables" sheetId="8" r:id="rId7"/>
+    <sheet name="Objectives" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>Yes</t>
   </si>
@@ -235,9 +236,6 @@
     <t>nsga2</t>
   </si>
   <si>
-    <t>evaluate</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
@@ -298,13 +296,7 @@
     <t>continue_run</t>
   </si>
   <si>
-    <t>evaluator</t>
-  </si>
-  <si>
-    <t>mj_utilities.util_general</t>
-  </si>
-  <si>
-    <t>evaluate_pop</t>
+    <t>life_cycle</t>
   </si>
 </sst>
 </file>
@@ -380,7 +372,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -396,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,9 +428,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,7 +500,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -688,7 +680,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
@@ -737,7 +729,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -758,7 +750,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -768,10 +760,10 @@
         <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,7 +774,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,12 +785,12 @@
         <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -809,7 +801,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -820,18 +812,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -847,13 +839,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -861,24 +853,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,21 +878,10 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +898,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -925,35 +906,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -965,11 +946,553 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -1005,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1022,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1039,468 +1562,9 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1510,7 +1574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1518,7 +1582,7 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -1564,7 +1628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1572,7 +1636,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
